--- a/Code/Results/Cases/Case_3_129/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_129/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.98371051250658</v>
+        <v>15.2749114326304</v>
       </c>
       <c r="C2">
-        <v>18.35080476836372</v>
+        <v>11.14585704520611</v>
       </c>
       <c r="D2">
-        <v>5.089173518499807</v>
+        <v>4.123700783610976</v>
       </c>
       <c r="F2">
-        <v>11.96975067980504</v>
+        <v>18.15325025705543</v>
       </c>
       <c r="G2">
-        <v>2.056899586337405</v>
+        <v>3.594606405955274</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>8.947849919547735</v>
+        <v>16.39943604742586</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.35569231186517</v>
+        <v>14.4444409033573</v>
       </c>
       <c r="C3">
-        <v>17.24963294786848</v>
+        <v>10.54437033021931</v>
       </c>
       <c r="D3">
-        <v>4.839087542307736</v>
+        <v>4.021035508234477</v>
       </c>
       <c r="F3">
-        <v>11.85507024103267</v>
+        <v>18.29609268713367</v>
       </c>
       <c r="G3">
-        <v>2.062253644693342</v>
+        <v>3.596567197462766</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>9.190290097306843</v>
+        <v>16.5639995779716</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.29763183517914</v>
+        <v>13.9085644219173</v>
       </c>
       <c r="C4">
-        <v>16.53752526906361</v>
+        <v>10.15589706423859</v>
       </c>
       <c r="D4">
-        <v>4.678891198735747</v>
+        <v>3.956390498626568</v>
       </c>
       <c r="F4">
-        <v>11.81758352826428</v>
+        <v>18.39294738512732</v>
       </c>
       <c r="G4">
-        <v>2.065633202108396</v>
+        <v>3.597833377876968</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>9.363295804814424</v>
+        <v>16.67170413749342</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.85172299442842</v>
+        <v>13.68382637728384</v>
       </c>
       <c r="C5">
-        <v>16.2383755461278</v>
+        <v>9.99288380487884</v>
       </c>
       <c r="D5">
-        <v>4.611990250956092</v>
+        <v>3.92967103798756</v>
       </c>
       <c r="F5">
-        <v>11.8102096920334</v>
+        <v>18.43469701520658</v>
       </c>
       <c r="G5">
-        <v>2.067034236321947</v>
+        <v>3.598365058078595</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>9.439340535101628</v>
+        <v>16.71726394132858</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.77678887795699</v>
+        <v>13.64612991547485</v>
       </c>
       <c r="C6">
-        <v>16.18816399667617</v>
+        <v>9.965534944671111</v>
       </c>
       <c r="D6">
-        <v>4.600785258106268</v>
+        <v>3.925212438270397</v>
       </c>
       <c r="F6">
-        <v>11.80945049947943</v>
+        <v>18.44176666303982</v>
       </c>
       <c r="G6">
-        <v>2.067268335570854</v>
+        <v>3.59845429293829</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>9.45228798597525</v>
+        <v>16.72492976866917</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.29167788440009</v>
+        <v>13.90555905108783</v>
       </c>
       <c r="C7">
-        <v>16.53352697086509</v>
+        <v>10.1537175075522</v>
       </c>
       <c r="D7">
-        <v>4.677995432642247</v>
+        <v>3.956031634754166</v>
       </c>
       <c r="F7">
-        <v>11.81745262375409</v>
+        <v>18.39350122787943</v>
       </c>
       <c r="G7">
-        <v>2.065651999570693</v>
+        <v>3.597840484662471</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>9.364299588684368</v>
+        <v>16.67231182150252</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.43447168232201</v>
+        <v>14.99404295092689</v>
       </c>
       <c r="C8">
-        <v>17.97863288239505</v>
+        <v>10.94249999418525</v>
       </c>
       <c r="D8">
-        <v>5.004349900372458</v>
+        <v>4.088651965990889</v>
       </c>
       <c r="F8">
-        <v>11.9231653212556</v>
+        <v>18.2005914817285</v>
       </c>
       <c r="G8">
-        <v>2.058726953574287</v>
+        <v>3.59526959718918</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>9.02609923675333</v>
+        <v>16.45479128133134</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.17525212689237</v>
+        <v>16.91684527368789</v>
       </c>
       <c r="C9">
-        <v>20.52453043416134</v>
+        <v>12.33349412972024</v>
       </c>
       <c r="D9">
-        <v>5.589879235097844</v>
+        <v>4.334811370813068</v>
       </c>
       <c r="F9">
-        <v>12.40532323887092</v>
+        <v>17.89577614236179</v>
       </c>
       <c r="G9">
-        <v>2.045846017866762</v>
+        <v>3.590719745717805</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>8.580485091279842</v>
+        <v>16.08136564808674</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.64667305069428</v>
+        <v>18.19460297371116</v>
       </c>
       <c r="C10">
-        <v>22.21785575990002</v>
+        <v>13.25658541941274</v>
       </c>
       <c r="D10">
-        <v>5.985120987772024</v>
+        <v>4.505779693481492</v>
       </c>
       <c r="F10">
-        <v>12.94052390689117</v>
+        <v>17.71782551596267</v>
       </c>
       <c r="G10">
-        <v>2.036760854244872</v>
+        <v>3.58767353331738</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>8.42402611936172</v>
+        <v>15.83978988951832</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.71193436504112</v>
+        <v>18.74575696631755</v>
       </c>
       <c r="C11">
-        <v>22.94976312580758</v>
+        <v>13.6545058125621</v>
       </c>
       <c r="D11">
-        <v>6.157109210671526</v>
+        <v>4.581151280283613</v>
       </c>
       <c r="F11">
-        <v>13.22470699885156</v>
+        <v>17.64711153724361</v>
       </c>
       <c r="G11">
-        <v>2.032698581724206</v>
+        <v>3.586351454641131</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>8.398568960905157</v>
+        <v>15.73709947297051</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.10693262299538</v>
+        <v>18.95008575243374</v>
       </c>
       <c r="C12">
-        <v>23.22141592866475</v>
+        <v>13.80199192777326</v>
       </c>
       <c r="D12">
-        <v>6.221101905615643</v>
+        <v>4.609327768975282</v>
       </c>
       <c r="F12">
-        <v>13.33820390000665</v>
+        <v>17.6218263523392</v>
       </c>
       <c r="G12">
-        <v>2.031169448501662</v>
+        <v>3.585859921010195</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>8.396193066185416</v>
+        <v>15.69925742479541</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.02223444297736</v>
+        <v>18.9062754531393</v>
       </c>
       <c r="C13">
-        <v>23.16315506878637</v>
+        <v>13.77037083186528</v>
       </c>
       <c r="D13">
-        <v>6.207370583900953</v>
+        <v>4.60327598873432</v>
       </c>
       <c r="F13">
-        <v>13.31349876578884</v>
+        <v>17.62720525868408</v>
       </c>
       <c r="G13">
-        <v>2.031498383864864</v>
+        <v>3.58596537716894</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>8.396371200272499</v>
+        <v>15.70736078577619</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.7445987736318</v>
+        <v>18.76265528149552</v>
       </c>
       <c r="C14">
-        <v>22.97222234982592</v>
+        <v>13.66670383799459</v>
       </c>
       <c r="D14">
-        <v>6.162396740027335</v>
+        <v>4.583476799902753</v>
       </c>
       <c r="F14">
-        <v>13.233926578021</v>
+        <v>17.6450012779704</v>
       </c>
       <c r="G14">
-        <v>2.032572601362598</v>
+        <v>3.586310833575963</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>8.398224121564791</v>
+        <v>15.73396519854062</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.5734487008391</v>
+        <v>18.67411186825888</v>
       </c>
       <c r="C15">
-        <v>22.85455437342333</v>
+        <v>13.60278749890171</v>
       </c>
       <c r="D15">
-        <v>6.134700796341821</v>
+        <v>4.571301127903596</v>
       </c>
       <c r="F15">
-        <v>13.18595238563746</v>
+        <v>17.6560968478</v>
       </c>
       <c r="G15">
-        <v>2.033231752922316</v>
+        <v>3.586523620509275</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>8.400324813993707</v>
+        <v>15.75039747063945</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.5758761134271</v>
+        <v>18.15797322726622</v>
       </c>
       <c r="C16">
-        <v>22.16925242424013</v>
+        <v>13.23013458929281</v>
       </c>
       <c r="D16">
-        <v>5.973722823824549</v>
+        <v>4.500803918869119</v>
       </c>
       <c r="F16">
-        <v>12.92277481143978</v>
+        <v>17.72265460305593</v>
       </c>
       <c r="G16">
-        <v>2.037027671025015</v>
+        <v>3.587761211373546</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>8.42666967087737</v>
+        <v>15.84664664055592</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.94884889891302</v>
+        <v>17.83358712572949</v>
       </c>
       <c r="C17">
-        <v>21.73901588472237</v>
+        <v>12.99586256254453</v>
       </c>
       <c r="D17">
-        <v>5.872957379736487</v>
+        <v>4.456926260986593</v>
       </c>
       <c r="F17">
-        <v>12.7717897842981</v>
+        <v>17.7661223052707</v>
       </c>
       <c r="G17">
-        <v>2.039373746075245</v>
+        <v>3.588536705550185</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>8.45504339714017</v>
+        <v>15.9075434799837</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.58264014438656</v>
+        <v>17.64417748596939</v>
       </c>
       <c r="C18">
-        <v>21.48793948692007</v>
+        <v>12.85904634163408</v>
       </c>
       <c r="D18">
-        <v>5.814265129379995</v>
+        <v>4.431463888830438</v>
       </c>
       <c r="F18">
-        <v>12.68878188544912</v>
+        <v>17.79208608964764</v>
       </c>
       <c r="G18">
-        <v>2.040729856560592</v>
+        <v>3.588988743819026</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>8.475626381115376</v>
+        <v>15.94324722329303</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.45769067403641</v>
+        <v>17.57956215493369</v>
       </c>
       <c r="C19">
-        <v>21.40230802618973</v>
+        <v>12.81236852977881</v>
       </c>
       <c r="D19">
-        <v>5.794267233057234</v>
+        <v>4.42280473115788</v>
       </c>
       <c r="F19">
-        <v>12.66133371426645</v>
+        <v>17.80104162293125</v>
       </c>
       <c r="G19">
-        <v>2.041190193819033</v>
+        <v>3.589142827157549</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>8.483305968298934</v>
+        <v>15.95545199822014</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.01617174234618</v>
+        <v>17.8684120308822</v>
       </c>
       <c r="C20">
-        <v>21.7851894305926</v>
+        <v>13.0210156442725</v>
       </c>
       <c r="D20">
-        <v>5.883760171608173</v>
+        <v>4.461620557443833</v>
       </c>
       <c r="F20">
-        <v>12.78746515185411</v>
+        <v>17.7613953475707</v>
       </c>
       <c r="G20">
-        <v>2.039123314864363</v>
+        <v>3.58845353278793</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>8.451576611453383</v>
+        <v>15.90099072771027</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.82637412615096</v>
+        <v>18.80495926944439</v>
       </c>
       <c r="C21">
-        <v>23.02845312156507</v>
+        <v>13.69724036433358</v>
       </c>
       <c r="D21">
-        <v>6.175637541355489</v>
+        <v>4.589302357481544</v>
       </c>
       <c r="F21">
-        <v>13.25713923071782</v>
+        <v>17.6397334829076</v>
       </c>
       <c r="G21">
-        <v>2.032256837294888</v>
+        <v>3.586209117801643</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>8.397477455934039</v>
+        <v>15.72612241647234</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.96057172569802</v>
+        <v>19.39149363363905</v>
       </c>
       <c r="C22">
-        <v>23.80892834006802</v>
+        <v>14.12054328829089</v>
       </c>
       <c r="D22">
-        <v>6.359775168598077</v>
+        <v>4.67061388713149</v>
       </c>
       <c r="F22">
-        <v>13.59836782739245</v>
+        <v>17.56893005801706</v>
       </c>
       <c r="G22">
-        <v>2.027822080147053</v>
+        <v>3.58479533560021</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>8.404742105068214</v>
+        <v>15.61792883023891</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.35966928736632</v>
+        <v>19.08080153168478</v>
       </c>
       <c r="C23">
-        <v>23.39529993411161</v>
+        <v>13.89633420437526</v>
       </c>
       <c r="D23">
-        <v>6.262106186387159</v>
+        <v>4.627417845147614</v>
       </c>
       <c r="F23">
-        <v>13.41311556461318</v>
+        <v>17.60591554363234</v>
       </c>
       <c r="G23">
-        <v>2.030184502594279</v>
+        <v>3.585545056448855</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>8.396750486255577</v>
+        <v>15.67511329355796</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.98575291582247</v>
+        <v>17.85267676910838</v>
       </c>
       <c r="C24">
-        <v>21.76432598251275</v>
+        <v>13.00965056822629</v>
       </c>
       <c r="D24">
-        <v>5.878878598288018</v>
+        <v>4.459499001224774</v>
       </c>
       <c r="F24">
-        <v>12.78036649898236</v>
+        <v>17.76352937393098</v>
       </c>
       <c r="G24">
-        <v>2.039236511938618</v>
+        <v>3.588491115888616</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>8.453130696572469</v>
+        <v>15.90395106792012</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.21224377830382</v>
+        <v>16.42003072636713</v>
       </c>
       <c r="C25">
-        <v>19.86686552435214</v>
+        <v>11.97433169963323</v>
       </c>
       <c r="D25">
-        <v>5.437516571740209</v>
+        <v>4.269860217175219</v>
       </c>
       <c r="F25">
-        <v>12.24380839798642</v>
+        <v>17.97024533083893</v>
       </c>
       <c r="G25">
-        <v>2.049260552717703</v>
+        <v>3.591898294306101</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>8.673908509820263</v>
+        <v>16.17666015713252</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_129/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_129/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.2749114326304</v>
+        <v>24.98371051250663</v>
       </c>
       <c r="C2">
-        <v>11.14585704520611</v>
+        <v>18.35080476836368</v>
       </c>
       <c r="D2">
-        <v>4.123700783610976</v>
+        <v>5.089173518499756</v>
       </c>
       <c r="F2">
-        <v>18.15325025705543</v>
+        <v>11.96975067980497</v>
       </c>
       <c r="G2">
-        <v>3.594606405955274</v>
+        <v>2.056899586337271</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.39943604742586</v>
+        <v>8.947849919547686</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.4444409033573</v>
+        <v>23.35569231186523</v>
       </c>
       <c r="C3">
-        <v>10.54437033021931</v>
+        <v>17.24963294786852</v>
       </c>
       <c r="D3">
-        <v>4.021035508234477</v>
+        <v>4.83908754230777</v>
       </c>
       <c r="F3">
-        <v>18.29609268713367</v>
+        <v>11.85507024103254</v>
       </c>
       <c r="G3">
-        <v>3.596567197462766</v>
+        <v>2.062253644693342</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.5639995779716</v>
+        <v>9.190290097306722</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.9085644219173</v>
+        <v>22.29763183517912</v>
       </c>
       <c r="C4">
-        <v>10.15589706423859</v>
+        <v>16.53752526906367</v>
       </c>
       <c r="D4">
-        <v>3.956390498626568</v>
+        <v>4.678891198735841</v>
       </c>
       <c r="F4">
-        <v>18.39294738512732</v>
+        <v>11.8175835282642</v>
       </c>
       <c r="G4">
-        <v>3.597833377876968</v>
+        <v>2.065633202108127</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.67170413749342</v>
+        <v>9.363295804814371</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.68382637728384</v>
+        <v>21.85172299442845</v>
       </c>
       <c r="C5">
-        <v>9.99288380487884</v>
+        <v>16.23837554612769</v>
       </c>
       <c r="D5">
-        <v>3.92967103798756</v>
+        <v>4.611990250956106</v>
       </c>
       <c r="F5">
-        <v>18.43469701520658</v>
+        <v>11.81020969203352</v>
       </c>
       <c r="G5">
-        <v>3.598365058078595</v>
+        <v>2.067034236322081</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.71726394132858</v>
+        <v>9.439340535101762</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.64612991547485</v>
+        <v>21.77678887795699</v>
       </c>
       <c r="C6">
-        <v>9.965534944671111</v>
+        <v>16.18816399667611</v>
       </c>
       <c r="D6">
-        <v>3.925212438270397</v>
+        <v>4.600785258106357</v>
       </c>
       <c r="F6">
-        <v>18.44176666303982</v>
+        <v>11.80945049947943</v>
       </c>
       <c r="G6">
-        <v>3.59845429293829</v>
+        <v>2.067268335570854</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.72492976866917</v>
+        <v>9.452287985975296</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.90555905108783</v>
+        <v>22.29167788440014</v>
       </c>
       <c r="C7">
-        <v>10.1537175075522</v>
+        <v>16.53352697086502</v>
       </c>
       <c r="D7">
-        <v>3.956031634754166</v>
+        <v>4.677995432642146</v>
       </c>
       <c r="F7">
-        <v>18.39350122787943</v>
+        <v>11.81745262375414</v>
       </c>
       <c r="G7">
-        <v>3.597840484662471</v>
+        <v>2.065651999570962</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.67231182150252</v>
+        <v>9.364299588684341</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.99404295092689</v>
+        <v>24.43447168232198</v>
       </c>
       <c r="C8">
-        <v>10.94249999418525</v>
+        <v>17.97863288239513</v>
       </c>
       <c r="D8">
-        <v>4.088651965990889</v>
+        <v>5.004349900372382</v>
       </c>
       <c r="F8">
-        <v>18.2005914817285</v>
+        <v>11.9231653212557</v>
       </c>
       <c r="G8">
-        <v>3.59526959718918</v>
+        <v>2.058726953574421</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.45479128133134</v>
+        <v>9.026099236753396</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.91684527368789</v>
+        <v>28.17525212689236</v>
       </c>
       <c r="C9">
-        <v>12.33349412972024</v>
+        <v>20.52453043416131</v>
       </c>
       <c r="D9">
-        <v>4.334811370813068</v>
+        <v>5.589879235097844</v>
       </c>
       <c r="F9">
-        <v>17.89577614236179</v>
+        <v>12.40532323887103</v>
       </c>
       <c r="G9">
-        <v>3.590719745717805</v>
+        <v>2.045846017866762</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.08136564808674</v>
+        <v>8.580485091280046</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.19460297371116</v>
+        <v>30.64667305069434</v>
       </c>
       <c r="C10">
-        <v>13.25658541941274</v>
+        <v>22.2178557599</v>
       </c>
       <c r="D10">
-        <v>4.505779693481492</v>
+        <v>5.985120987772013</v>
       </c>
       <c r="F10">
-        <v>17.71782551596267</v>
+        <v>12.94052390689108</v>
       </c>
       <c r="G10">
-        <v>3.58767353331738</v>
+        <v>2.036760854244872</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.83978988951832</v>
+        <v>8.424026119361564</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.74575696631755</v>
+        <v>31.71193436504113</v>
       </c>
       <c r="C11">
-        <v>13.6545058125621</v>
+        <v>22.94976312580754</v>
       </c>
       <c r="D11">
-        <v>4.581151280283613</v>
+        <v>6.157109210671551</v>
       </c>
       <c r="F11">
-        <v>17.64711153724361</v>
+        <v>13.22470699885162</v>
       </c>
       <c r="G11">
-        <v>3.586351454641131</v>
+        <v>2.032698581724072</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.73709947297051</v>
+        <v>8.398568960905164</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.95008575243374</v>
+        <v>32.10693262299534</v>
       </c>
       <c r="C12">
-        <v>13.80199192777326</v>
+        <v>23.22141592866466</v>
       </c>
       <c r="D12">
-        <v>4.609327768975282</v>
+        <v>6.221101905615672</v>
       </c>
       <c r="F12">
-        <v>17.6218263523392</v>
+        <v>13.3382039000068</v>
       </c>
       <c r="G12">
-        <v>3.585859921010195</v>
+        <v>2.031169448501527</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.69925742479541</v>
+        <v>8.396193066185592</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.9062754531393</v>
+        <v>32.02223444297735</v>
       </c>
       <c r="C13">
-        <v>13.77037083186528</v>
+        <v>23.16315506878629</v>
       </c>
       <c r="D13">
-        <v>4.60327598873432</v>
+        <v>6.207370583900915</v>
       </c>
       <c r="F13">
-        <v>17.62720525868408</v>
+        <v>13.31349876578895</v>
       </c>
       <c r="G13">
-        <v>3.58596537716894</v>
+        <v>2.031498383864999</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.70736078577619</v>
+        <v>8.396371200272643</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.76265528149552</v>
+        <v>31.74459877363176</v>
       </c>
       <c r="C14">
-        <v>13.66670383799459</v>
+        <v>22.97222234982596</v>
       </c>
       <c r="D14">
-        <v>4.583476799902753</v>
+        <v>6.162396740027436</v>
       </c>
       <c r="F14">
-        <v>17.6450012779704</v>
+        <v>13.233926578021</v>
       </c>
       <c r="G14">
-        <v>3.586310833575963</v>
+        <v>2.032572601362332</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.73396519854062</v>
+        <v>8.39822412156485</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.67411186825888</v>
+        <v>31.5734487008391</v>
       </c>
       <c r="C15">
-        <v>13.60278749890171</v>
+        <v>22.8545543734233</v>
       </c>
       <c r="D15">
-        <v>4.571301127903596</v>
+        <v>6.134700796341821</v>
       </c>
       <c r="F15">
-        <v>17.6560968478</v>
+        <v>13.18595238563745</v>
       </c>
       <c r="G15">
-        <v>3.586523620509275</v>
+        <v>2.033231752922316</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.75039747063945</v>
+        <v>8.400324813993718</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.15797322726622</v>
+        <v>30.57587611342716</v>
       </c>
       <c r="C16">
-        <v>13.23013458929281</v>
+        <v>22.16925242424012</v>
       </c>
       <c r="D16">
-        <v>4.500803918869119</v>
+        <v>5.973722823824498</v>
       </c>
       <c r="F16">
-        <v>17.72265460305593</v>
+        <v>12.92277481143978</v>
       </c>
       <c r="G16">
-        <v>3.587761211373546</v>
+        <v>2.037027671025148</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.84664664055592</v>
+        <v>8.426669670877358</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.83358712572949</v>
+        <v>29.94884889891307</v>
       </c>
       <c r="C17">
-        <v>12.99586256254453</v>
+        <v>21.7390158847224</v>
       </c>
       <c r="D17">
-        <v>4.456926260986593</v>
+        <v>5.872957379736494</v>
       </c>
       <c r="F17">
-        <v>17.7661223052707</v>
+        <v>12.77178978429814</v>
       </c>
       <c r="G17">
-        <v>3.588536705550185</v>
+        <v>2.039373746075245</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.9075434799837</v>
+        <v>8.455043397140193</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.64417748596939</v>
+        <v>29.58264014438648</v>
       </c>
       <c r="C18">
-        <v>12.85904634163408</v>
+        <v>21.48793948692022</v>
       </c>
       <c r="D18">
-        <v>4.431463888830438</v>
+        <v>5.814265129380098</v>
       </c>
       <c r="F18">
-        <v>17.79208608964764</v>
+        <v>12.68878188544905</v>
       </c>
       <c r="G18">
-        <v>3.588988743819026</v>
+        <v>2.040729856560593</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.94324722329303</v>
+        <v>8.475626381115298</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.57956215493369</v>
+        <v>29.45769067403642</v>
       </c>
       <c r="C19">
-        <v>12.81236852977881</v>
+        <v>21.40230802618977</v>
       </c>
       <c r="D19">
-        <v>4.42280473115788</v>
+        <v>5.794267233057262</v>
       </c>
       <c r="F19">
-        <v>17.80104162293125</v>
+        <v>12.66133371426644</v>
       </c>
       <c r="G19">
-        <v>3.589142827157549</v>
+        <v>2.041190193819032</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.95545199822014</v>
+        <v>8.483305968298904</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.8684120308822</v>
+        <v>30.01617174234608</v>
       </c>
       <c r="C20">
-        <v>13.0210156442725</v>
+        <v>21.78518943059252</v>
       </c>
       <c r="D20">
-        <v>4.461620557443833</v>
+        <v>5.883760171608206</v>
       </c>
       <c r="F20">
-        <v>17.7613953475707</v>
+        <v>12.78746515185425</v>
       </c>
       <c r="G20">
-        <v>3.58845353278793</v>
+        <v>2.039123314864497</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.90099072771027</v>
+        <v>8.451576611453584</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.80495926944439</v>
+        <v>31.82637412615086</v>
       </c>
       <c r="C21">
-        <v>13.69724036433358</v>
+        <v>23.02845312156512</v>
       </c>
       <c r="D21">
-        <v>4.589302357481544</v>
+        <v>6.175637541355583</v>
       </c>
       <c r="F21">
-        <v>17.6397334829076</v>
+        <v>13.25713923071785</v>
       </c>
       <c r="G21">
-        <v>3.586209117801643</v>
+        <v>2.032256837295023</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.72612241647234</v>
+        <v>8.397477455934141</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.39149363363905</v>
+        <v>32.9605717256979</v>
       </c>
       <c r="C22">
-        <v>14.12054328829089</v>
+        <v>23.80892834006813</v>
       </c>
       <c r="D22">
-        <v>4.67061388713149</v>
+        <v>6.359775168598141</v>
       </c>
       <c r="F22">
-        <v>17.56893005801706</v>
+        <v>13.59836782739251</v>
       </c>
       <c r="G22">
-        <v>3.58479533560021</v>
+        <v>2.027822080147187</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.61792883023891</v>
+        <v>8.404742105068278</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.08080153168478</v>
+        <v>32.35966928736635</v>
       </c>
       <c r="C23">
-        <v>13.89633420437526</v>
+        <v>23.39529993411157</v>
       </c>
       <c r="D23">
-        <v>4.627417845147614</v>
+        <v>6.262106186387219</v>
       </c>
       <c r="F23">
-        <v>17.60591554363234</v>
+        <v>13.41311556461324</v>
       </c>
       <c r="G23">
-        <v>3.585545056448855</v>
+        <v>2.030184502594279</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.67511329355796</v>
+        <v>8.396750486255597</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.85267676910838</v>
+        <v>29.98575291582253</v>
       </c>
       <c r="C24">
-        <v>13.00965056822629</v>
+        <v>21.76432598251279</v>
       </c>
       <c r="D24">
-        <v>4.459499001224774</v>
+        <v>5.878878598288005</v>
       </c>
       <c r="F24">
-        <v>17.76352937393098</v>
+        <v>12.78036649898229</v>
       </c>
       <c r="G24">
-        <v>3.588491115888616</v>
+        <v>2.039236511938483</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.90395106792012</v>
+        <v>8.453130696572336</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.42003072636713</v>
+        <v>27.2122437783038</v>
       </c>
       <c r="C25">
-        <v>11.97433169963323</v>
+        <v>19.8668655243521</v>
       </c>
       <c r="D25">
-        <v>4.269860217175219</v>
+        <v>5.437516571740286</v>
       </c>
       <c r="F25">
-        <v>17.97024533083893</v>
+        <v>12.24380839798648</v>
       </c>
       <c r="G25">
-        <v>3.591898294306101</v>
+        <v>2.049260552717838</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.17666015713252</v>
+        <v>8.673908509820352</v>
       </c>
     </row>
   </sheetData>
